--- a/Other/Config/Excel/NPC.xlsx
+++ b/Other/Config/Excel/NPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">对话用头像路径</t>
   </si>
   <si>
+    <t xml:space="preserve">AI图路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对话树路径</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -46,6 +52,12 @@
     <t xml:space="preserve">DialogueHeadPath</t>
   </si>
   <si>
+    <t xml:space="preserve">AIPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DialoguePath</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -62,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">Heads/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSM/normalNPC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testTree1</t>
   </si>
   <si>
     <t xml:space="preserve">testNPC2</t>
@@ -86,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +161,13 @@
       <name val="NSimSun"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -208,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,6 +259,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -486,12 +515,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -531,19 +560,31 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,30 +594,42 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,13 +637,19 @@
         <v>45001</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,13 +657,16 @@
         <v>45002</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,12 +674,15 @@
         <v>45003</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Other/Config/Excel/NPC.xlsx
+++ b/Other/Config/Excel/NPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Heads/1</t>
   </si>
   <si>
-    <t xml:space="preserve">FSM/normalNPC1</t>
+    <t xml:space="preserve">FSM/normalNPCFSM1</t>
   </si>
   <si>
     <t xml:space="preserve">testTree1</t>
@@ -85,13 +85,7 @@
     <t xml:space="preserve">testNPC2</t>
   </si>
   <si>
-    <t xml:space="preserve">NPC/NPC2</t>
-  </si>
-  <si>
     <t xml:space="preserve">testNPC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPC/NPC3</t>
   </si>
   <si>
     <t xml:space="preserve">Heads/2</t>
@@ -520,7 +514,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,7 +523,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.81"/>
@@ -660,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -674,13 +668,13 @@
         <v>45003</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>18</v>

--- a/Other/Config/Excel/NPC.xlsx
+++ b/Other/Config/Excel/NPC.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Projects\Xiaohongshu\Unity-CyberMaster\Other\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75555874-A1ED-4478-8238-BDF7BA53FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,109 +25,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPC名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefab路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对话用头像路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI图路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对话树路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPCName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DialogueHeadPath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIPath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DialoguePath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPC/NPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heads/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSM/normalNPCFSM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testTree1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testNPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testNPC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heads/2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NPC名</t>
+  </si>
+  <si>
+    <t>Prefab路径</t>
+  </si>
+  <si>
+    <t>对话用头像路径</t>
+  </si>
+  <si>
+    <t>AI图路径</t>
+  </si>
+  <si>
+    <t>对话树路径</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>NPCName</t>
+  </si>
+  <si>
+    <t>Prefab</t>
+  </si>
+  <si>
+    <t>DialogueHeadPath</t>
+  </si>
+  <si>
+    <t>AIPath</t>
+  </si>
+  <si>
+    <t>DialoguePath</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>testNPC1</t>
+  </si>
+  <si>
+    <t>NPC/NPC1</t>
+  </si>
+  <si>
+    <t>Heads/1</t>
+  </si>
+  <si>
+    <t>FSM/normalNPCFSM1</t>
+  </si>
+  <si>
+    <t>testTree1</t>
+  </si>
+  <si>
+    <t>testNPC2</t>
+  </si>
+  <si>
+    <t>testNPC3</t>
+  </si>
+  <si>
+    <t>Heads/2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heads/1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/NPC1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier3</t>
+  </si>
+  <si>
+    <t>Soldier4</t>
+  </si>
+  <si>
+    <t>LiHuo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -153,14 +168,20 @@
       <sz val="9.5"/>
       <color rgb="FF0000FF"/>
       <name val="NSimSun"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -173,102 +194,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -327,60 +301,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -412,7 +402,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -436,7 +426,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -496,52 +486,50 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFB14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="20.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.05"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -581,12 +569,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -606,7 +594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -626,8 +614,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>45001</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -646,8 +634,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>45002</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -657,21 +645,21 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>45003</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -680,13 +668,99 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>45004</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>45005</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>45006</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>45007</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>45008</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>45009</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Other/Config/Excel/NPC.xlsx
+++ b/Other/Config/Excel/NPC.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Projects\Xiaohongshu\Unity-CyberMaster\Other\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75555874-A1ED-4478-8238-BDF7BA53FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,113 +20,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NPC名</t>
-  </si>
-  <si>
-    <t>Prefab路径</t>
-  </si>
-  <si>
-    <t>对话用头像路径</t>
-  </si>
-  <si>
-    <t>AI图路径</t>
-  </si>
-  <si>
-    <t>对话树路径</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>NPCName</t>
-  </si>
-  <si>
-    <t>Prefab</t>
-  </si>
-  <si>
-    <t>DialogueHeadPath</t>
-  </si>
-  <si>
-    <t>AIPath</t>
-  </si>
-  <si>
-    <t>DialoguePath</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>testNPC1</t>
-  </si>
-  <si>
-    <t>NPC/NPC1</t>
-  </si>
-  <si>
-    <t>Heads/1</t>
-  </si>
-  <si>
-    <t>FSM/normalNPCFSM1</t>
-  </si>
-  <si>
-    <t>testTree1</t>
-  </si>
-  <si>
-    <t>testNPC2</t>
-  </si>
-  <si>
-    <t>testNPC3</t>
-  </si>
-  <si>
-    <t>Heads/2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heads/1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC/NPC1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soldier1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soldier2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soldier3</t>
-  </si>
-  <si>
-    <t>Soldier4</t>
-  </si>
-  <si>
-    <t>LiHuo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPC名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefab路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对话用头像路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI图路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对话树路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPCName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DialogueHeadPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DialoguePath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testNPC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPC/NPC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heads/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSM/normalNPCFSM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testTree1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testNPC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testNPC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heads/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +107,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
@@ -168,20 +153,14 @@
       <sz val="9.5"/>
       <color rgb="FF0000FF"/>
       <name val="NSimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -194,55 +173,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79989013336588644"/>
+        <fgColor theme="5" tint="0.7999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.35"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.35"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.35"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.35"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -301,76 +327,60 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -402,7 +412,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -426,7 +436,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -486,50 +496,52 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFB14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25" style="1" customWidth="1"/>
-    <col min="16383" max="16384" width="11" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.05"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -569,12 +581,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -594,7 +606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -614,8 +626,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>45001</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -634,8 +646,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>45002</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -645,21 +657,21 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>45003</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -668,99 +680,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8">
-        <v>45004</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8">
-        <v>45005</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8">
-        <v>45006</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8">
-        <v>45007</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8">
-        <v>45008</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8">
-        <v>45009</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Other/Config/Excel/NPC.xlsx
+++ b/Other/Config/Excel/NPC.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Projects\Xiaohongshu\Unity-CyberMaster\Other\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D1BE9-D476-46F3-8067-BD4046B6FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,109 +25,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPC名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefab路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对话用头像路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI图路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对话树路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPCName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DialogueHeadPath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIPath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DialoguePath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPC/NPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heads/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSM/normalNPCFSM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testTree1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testNPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testNPC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heads/2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NPC名</t>
+  </si>
+  <si>
+    <t>Prefab路径</t>
+  </si>
+  <si>
+    <t>对话用头像路径</t>
+  </si>
+  <si>
+    <t>AI图路径</t>
+  </si>
+  <si>
+    <t>对话树路径</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>NPCName</t>
+  </si>
+  <si>
+    <t>Prefab</t>
+  </si>
+  <si>
+    <t>DialogueHeadPath</t>
+  </si>
+  <si>
+    <t>AIPath</t>
+  </si>
+  <si>
+    <t>DialoguePath</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>testNPC1</t>
+  </si>
+  <si>
+    <t>NPC/NPC1</t>
+  </si>
+  <si>
+    <t>Heads/1</t>
+  </si>
+  <si>
+    <t>FSM/normalNPCFSM1</t>
+  </si>
+  <si>
+    <t>testTree1</t>
+  </si>
+  <si>
+    <t>testNPC2</t>
+  </si>
+  <si>
+    <t>testNPC3</t>
+  </si>
+  <si>
+    <t>Heads/2</t>
+  </si>
+  <si>
+    <t>Soldier1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/NPC1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heads/1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier3</t>
+  </si>
+  <si>
+    <t>Soldier4</t>
+  </si>
+  <si>
+    <t>LiHuo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -153,14 +167,20 @@
       <sz val="9.5"/>
       <color rgb="FF0000FF"/>
       <name val="NSimSun"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -173,102 +193,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -327,60 +300,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -412,7 +401,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -436,7 +425,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -496,52 +485,50 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFB14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="20.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.05"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -581,12 +568,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -606,7 +593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -626,8 +613,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>45001</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -646,8 +633,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>45002</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -663,8 +650,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>45003</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -680,13 +667,105 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>45004</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>45005</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>45006</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>45007</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>45008</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>45009</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Other/Config/Excel/NPC.xlsx
+++ b/Other/Config/Excel/NPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Projects\Xiaohongshu\Unity-CyberMaster\Other\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D1BE9-D476-46F3-8067-BD4046B6FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C98BBBB-36EA-455F-B16B-E73015F7A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="3570" windowWidth="22440" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>Screen1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RongEr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaoXiugu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MingSeng</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -497,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFB14"/>
+  <dimension ref="A1:XFB18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -763,6 +779,62 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>45010</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>45011</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
